--- a/biology/Zoologie/Cheiracanthium_pallidum/Cheiracanthium_pallidum.xlsx
+++ b/biology/Zoologie/Cheiracanthium_pallidum/Cheiracanthium_pallidum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cheiracanthium pallidum est une espèce d'araignées aranéomorphes de la famille des Cheiracanthiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheiracanthium pallidum est une espèce d'araignées aranéomorphes de la famille des Cheiracanthiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île Lord Howe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île Lord Howe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle mesure 2,7 mm sur 2,4 mm et son abdomen 3,2 mm sur 1,8 mm. La carapace de la femelle mesure 3,2 mm sur 2,4 mm et son abdomen 4 mm sur 2,4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle mesure 2,7 mm sur 2,4 mm et son abdomen 3,2 mm sur 1,8 mm. La carapace de la femelle mesure 3,2 mm sur 2,4 mm et son abdomen 4 mm sur 2,4 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rainbow, 1920 : Arachnida from Lord Howe and Norfolk Islands. Records of the South Australian Museum, vol. 1, p. 229-272 (texte intégral).</t>
         </is>
